--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1112.636765010859</v>
+        <v>1195.952638647505</v>
       </c>
       <c r="AB2" t="n">
-        <v>1522.358707957609</v>
+        <v>1636.3551619042</v>
       </c>
       <c r="AC2" t="n">
-        <v>1377.066929514</v>
+        <v>1480.183721890956</v>
       </c>
       <c r="AD2" t="n">
-        <v>1112636.765010859</v>
+        <v>1195952.638647505</v>
       </c>
       <c r="AE2" t="n">
-        <v>1522358.707957609</v>
+        <v>1636355.1619042</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279114660367293e-06</v>
+        <v>2.162406798161105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.83984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1377066.929514</v>
+        <v>1480183.721890956</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.6768204046778</v>
+        <v>596.6639900815613</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.2508551230841</v>
+        <v>816.3819941870544</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.1251594762807</v>
+        <v>738.4676424611664</v>
       </c>
       <c r="AD3" t="n">
-        <v>544676.8204046778</v>
+        <v>596663.9900815614</v>
       </c>
       <c r="AE3" t="n">
-        <v>745250.855123084</v>
+        <v>816381.9941870543</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.007089624373408e-06</v>
+        <v>3.39308459416564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09548611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>674125.1594762807</v>
+        <v>738467.6424611664</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>432.3679661374835</v>
+        <v>484.355046305816</v>
       </c>
       <c r="AB4" t="n">
-        <v>591.584925997745</v>
+        <v>662.7159425921669</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.1248909551779</v>
+        <v>599.4672631588371</v>
       </c>
       <c r="AD4" t="n">
-        <v>432367.9661374835</v>
+        <v>484355.046305816</v>
       </c>
       <c r="AE4" t="n">
-        <v>591584.925997745</v>
+        <v>662715.9425921669</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.285040306410884e-06</v>
+        <v>3.862974013006925e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>535124.8909551778</v>
+        <v>599467.2631588371</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>391.2812351796829</v>
+        <v>432.8539206519857</v>
       </c>
       <c r="AB5" t="n">
-        <v>535.3682480826407</v>
+        <v>592.2498304032871</v>
       </c>
       <c r="AC5" t="n">
-        <v>484.2734538796882</v>
+        <v>535.7263378174542</v>
       </c>
       <c r="AD5" t="n">
-        <v>391281.2351796829</v>
+        <v>432853.9206519857</v>
       </c>
       <c r="AE5" t="n">
-        <v>535368.2480826407</v>
+        <v>592249.8304032871</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.429851024529838e-06</v>
+        <v>4.107783716944726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.337673611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>484273.4538796882</v>
+        <v>535726.3378174542</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>362.3662289706425</v>
+        <v>403.9389144429452</v>
       </c>
       <c r="AB6" t="n">
-        <v>495.8054609473878</v>
+        <v>552.6870432680341</v>
       </c>
       <c r="AC6" t="n">
-        <v>448.4864836219032</v>
+        <v>499.9393675596693</v>
       </c>
       <c r="AD6" t="n">
-        <v>362366.2289706424</v>
+        <v>403938.9144429452</v>
       </c>
       <c r="AE6" t="n">
-        <v>495805.4609473877</v>
+        <v>552687.0432680341</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.526764967410222e-06</v>
+        <v>4.271621545885692e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.018663194444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>448486.4836219032</v>
+        <v>499939.3675596693</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>332.4597988720122</v>
+        <v>374.1177356903355</v>
       </c>
       <c r="AB7" t="n">
-        <v>454.886163907863</v>
+        <v>511.8843908811587</v>
       </c>
       <c r="AC7" t="n">
-        <v>411.4724668612366</v>
+        <v>463.0308630497149</v>
       </c>
       <c r="AD7" t="n">
-        <v>332459.7988720122</v>
+        <v>374117.7356903355</v>
       </c>
       <c r="AE7" t="n">
-        <v>454886.163907863</v>
+        <v>511884.3908811586</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.582131025337068e-06</v>
+        <v>4.36522061386449e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>411472.4668612366</v>
+        <v>463030.8630497149</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>327.8099806035747</v>
+        <v>369.4679174218979</v>
       </c>
       <c r="AB8" t="n">
-        <v>448.5240774174825</v>
+        <v>505.5223043907781</v>
       </c>
       <c r="AC8" t="n">
-        <v>405.7175689762535</v>
+        <v>457.2759651647318</v>
       </c>
       <c r="AD8" t="n">
-        <v>327809.9806035747</v>
+        <v>369467.9174218979</v>
       </c>
       <c r="AE8" t="n">
-        <v>448524.0774174825</v>
+        <v>505522.3043907781</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.597816518982448e-06</v>
+        <v>4.391737719126611e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.799479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>405717.5689762535</v>
+        <v>457275.9651647318</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>782.9708565359517</v>
+        <v>853.4342392423804</v>
       </c>
       <c r="AB2" t="n">
-        <v>1071.295268148812</v>
+        <v>1167.706376992796</v>
       </c>
       <c r="AC2" t="n">
-        <v>969.0523513290403</v>
+        <v>1056.262119258796</v>
       </c>
       <c r="AD2" t="n">
-        <v>782970.8565359517</v>
+        <v>853434.2392423804</v>
       </c>
       <c r="AE2" t="n">
-        <v>1071295.268148812</v>
+        <v>1167706.376992796</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.56961673764768e-06</v>
+        <v>2.718248151453204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35503472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>969052.3513290404</v>
+        <v>1056262.119258797</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.9832758824979</v>
+        <v>486.2655229012065</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.5315522870832</v>
+        <v>665.329940954259</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.5994181740951</v>
+        <v>601.8317851860206</v>
       </c>
       <c r="AD3" t="n">
-        <v>435983.275882498</v>
+        <v>486265.5229012065</v>
       </c>
       <c r="AE3" t="n">
-        <v>596531.5522870831</v>
+        <v>665329.940954259</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246683584666955e-06</v>
+        <v>3.890786428586116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.329427083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>539599.4181740951</v>
+        <v>601831.7851860207</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>359.9441740033672</v>
+        <v>400.221194032787</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.4914984876378</v>
+        <v>547.6002941886068</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.4888010881363</v>
+        <v>495.3380906730853</v>
       </c>
       <c r="AD4" t="n">
-        <v>359944.1740033671</v>
+        <v>400221.194032787</v>
       </c>
       <c r="AE4" t="n">
-        <v>492491.4984876378</v>
+        <v>547600.2941886068</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.497710223098209e-06</v>
+        <v>4.325512103660073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.391927083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>445488.8010881363</v>
+        <v>495338.0906730853</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.6923010146082</v>
+        <v>363.9744585247657</v>
       </c>
       <c r="AB5" t="n">
-        <v>429.2076453757923</v>
+        <v>498.0059115734197</v>
       </c>
       <c r="AC5" t="n">
-        <v>388.2446700978394</v>
+        <v>450.4769263285385</v>
       </c>
       <c r="AD5" t="n">
-        <v>313692.3010146082</v>
+        <v>363974.4585247657</v>
       </c>
       <c r="AE5" t="n">
-        <v>429207.6453757922</v>
+        <v>498005.9115734197</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.631288461247662e-06</v>
+        <v>4.556841695282729e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.966579861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>388244.6700978394</v>
+        <v>450476.9263285385</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>303.1362383096594</v>
+        <v>343.4985096850999</v>
       </c>
       <c r="AB6" t="n">
-        <v>414.7643746822622</v>
+        <v>469.9898150358805</v>
       </c>
       <c r="AC6" t="n">
-        <v>375.1798448880423</v>
+        <v>425.1346467237036</v>
       </c>
       <c r="AD6" t="n">
-        <v>303136.2383096594</v>
+        <v>343498.5096850999</v>
       </c>
       <c r="AE6" t="n">
-        <v>414764.3746822622</v>
+        <v>469989.8150358805</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.667991086335725e-06</v>
+        <v>4.620402971361261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.855902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>375179.8448880423</v>
+        <v>425134.6467237035</v>
       </c>
     </row>
   </sheetData>
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.5184234812214</v>
+        <v>348.979975440634</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.6014943467906</v>
+        <v>477.4897983078041</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.7918078687987</v>
+        <v>431.9188421184474</v>
       </c>
       <c r="AD2" t="n">
-        <v>312518.4234812214</v>
+        <v>348979.9754406339</v>
       </c>
       <c r="AE2" t="n">
-        <v>427601.4943467906</v>
+        <v>477489.798307804</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.533376646255372e-06</v>
+        <v>4.793693771325175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>386791.8078687987</v>
+        <v>431918.8421184474</v>
       </c>
     </row>
     <row r="3">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.2325632287996</v>
+        <v>293.6087743336436</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.9569413092451</v>
+        <v>401.7284781482317</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.3666648054655</v>
+        <v>363.3880760232239</v>
       </c>
       <c r="AD3" t="n">
-        <v>257232.5632287996</v>
+        <v>293608.7743336436</v>
       </c>
       <c r="AE3" t="n">
-        <v>351956.9413092451</v>
+        <v>401728.4781482316</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.797427219867457e-06</v>
+        <v>5.293334277568121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.361545138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>318366.6648054654</v>
+        <v>363388.0760232239</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.927530696356</v>
+        <v>488.3254332451976</v>
       </c>
       <c r="AB2" t="n">
-        <v>603.2964998485315</v>
+        <v>668.1484011637384</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.7187286349424</v>
+        <v>604.3812555088413</v>
       </c>
       <c r="AD2" t="n">
-        <v>440927.530696356</v>
+        <v>488325.4332451976</v>
       </c>
       <c r="AE2" t="n">
-        <v>603296.4998485316</v>
+        <v>668148.4011637385</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.140266763463223e-06</v>
+        <v>3.899101231066338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45355902777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>545718.7286349424</v>
+        <v>604381.2555088412</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.3708263657581</v>
+        <v>327.2720981356273</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.9299307735015</v>
+        <v>447.7881228951372</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.1429338716257</v>
+        <v>405.0518529206022</v>
       </c>
       <c r="AD3" t="n">
-        <v>289370.8263657581</v>
+        <v>327272.0981356273</v>
       </c>
       <c r="AE3" t="n">
-        <v>395929.9307735015</v>
+        <v>447788.1228951372</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.705801169359541e-06</v>
+        <v>4.929382098799205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.270399305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>358142.9338716257</v>
+        <v>405051.8529206023</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.187478855882</v>
+        <v>314.0887506257512</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.8918931022447</v>
+        <v>429.7500852238804</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.8264211991687</v>
+        <v>388.7353402481453</v>
       </c>
       <c r="AD4" t="n">
-        <v>276187.478855882</v>
+        <v>314088.7506257512</v>
       </c>
       <c r="AE4" t="n">
-        <v>377891.8931022447</v>
+        <v>429750.0852238804</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.775603683997975e-06</v>
+        <v>5.056547121124667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.062065972222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>341826.4211991688</v>
+        <v>388735.3402481453</v>
       </c>
     </row>
   </sheetData>
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.8223837618631</v>
+        <v>288.7502927426311</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.9767862641135</v>
+        <v>395.0808892943278</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.0070719260385</v>
+        <v>357.3749237195872</v>
       </c>
       <c r="AD2" t="n">
-        <v>244822.383761863</v>
+        <v>288750.292742631</v>
       </c>
       <c r="AE2" t="n">
-        <v>334976.7862641135</v>
+        <v>395080.8892943278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763207142947833e-06</v>
+        <v>5.414995693544027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.791232638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>303007.0719260385</v>
+        <v>357374.9237195872</v>
       </c>
     </row>
     <row r="3">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.7589968490952</v>
+        <v>288.6869058298632</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.8900574936313</v>
+        <v>394.9941605238456</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.9286204276865</v>
+        <v>357.2964722212351</v>
       </c>
       <c r="AD3" t="n">
-        <v>244758.9968490952</v>
+        <v>288686.9058298632</v>
       </c>
       <c r="AE3" t="n">
-        <v>334890.0574936313</v>
+        <v>394994.1605238456</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.775072165922493e-06</v>
+        <v>5.43824731565841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.754340277777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>302928.6204276865</v>
+        <v>357296.4722212352</v>
       </c>
     </row>
   </sheetData>
@@ -5696,28 +5696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>849.0236720232524</v>
+        <v>930.2586422342379</v>
       </c>
       <c r="AB2" t="n">
-        <v>1161.671644343093</v>
+        <v>1272.820914419714</v>
       </c>
       <c r="AC2" t="n">
-        <v>1050.80333302338</v>
+        <v>1151.344672762869</v>
       </c>
       <c r="AD2" t="n">
-        <v>849023.6720232524</v>
+        <v>930258.6422342379</v>
       </c>
       <c r="AE2" t="n">
-        <v>1161671.644343093</v>
+        <v>1272820.914419714</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49310869605412e-06</v>
+        <v>2.568865452001362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.91276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1050803.33302338</v>
+        <v>1151344.672762869</v>
       </c>
     </row>
     <row r="3">
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.7896004807946</v>
+        <v>510.6681329308751</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.1044158633902</v>
+        <v>698.7186685640257</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.0635733669807</v>
+        <v>632.033939494085</v>
       </c>
       <c r="AD3" t="n">
-        <v>459789.6004807946</v>
+        <v>510668.1329308751</v>
       </c>
       <c r="AE3" t="n">
-        <v>629104.4158633902</v>
+        <v>698718.6685640258</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.18304571003951e-06</v>
+        <v>3.755889118776528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.516059027777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>569063.5733669807</v>
+        <v>632033.9394940849</v>
       </c>
     </row>
     <row r="4">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.713720308417</v>
+        <v>418.5018871230529</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.8045756792625</v>
+        <v>572.6127449619686</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.4814723162104</v>
+        <v>517.9633882498326</v>
       </c>
       <c r="AD4" t="n">
-        <v>377713.720308417</v>
+        <v>418501.887123053</v>
       </c>
       <c r="AE4" t="n">
-        <v>516804.5756792625</v>
+        <v>572612.7449619686</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.442442117905826e-06</v>
+        <v>4.202175763748878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.504774305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>467481.4723162104</v>
+        <v>517963.3882498327</v>
       </c>
     </row>
     <row r="5">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>341.1814932502425</v>
+        <v>381.7990678642863</v>
       </c>
       <c r="AB5" t="n">
-        <v>466.8195709301576</v>
+        <v>522.3943284380168</v>
       </c>
       <c r="AC5" t="n">
-        <v>422.2669662659653</v>
+        <v>472.5377469169365</v>
       </c>
       <c r="AD5" t="n">
-        <v>341181.4932502424</v>
+        <v>381799.0678642862</v>
       </c>
       <c r="AE5" t="n">
-        <v>466819.5709301576</v>
+        <v>522394.3284380168</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.578840598056934e-06</v>
+        <v>4.436846785551682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>422266.9662659653</v>
+        <v>472537.7469169365</v>
       </c>
     </row>
     <row r="6">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.089149556424</v>
+        <v>349.7919755164884</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.9094104739947</v>
+        <v>478.6008126345033</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.5475298954414</v>
+        <v>432.9238227971248</v>
       </c>
       <c r="AD6" t="n">
-        <v>309089.1495564241</v>
+        <v>349791.9755164884</v>
       </c>
       <c r="AE6" t="n">
-        <v>422909.4104739947</v>
+        <v>478600.8126345032</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.649863525967195e-06</v>
+        <v>4.559040398307949e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>382547.5298954414</v>
+        <v>432923.8227971249</v>
       </c>
     </row>
     <row r="7">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>309.0134566557064</v>
+        <v>349.7162826157708</v>
       </c>
       <c r="AB7" t="n">
-        <v>422.8058441078977</v>
+        <v>478.4972462684063</v>
       </c>
       <c r="AC7" t="n">
-        <v>382.4538477579683</v>
+        <v>432.8301406596518</v>
       </c>
       <c r="AD7" t="n">
-        <v>309013.4566557064</v>
+        <v>349716.2826157708</v>
       </c>
       <c r="AE7" t="n">
-        <v>422805.8441078977</v>
+        <v>478497.2462684063</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.652543636454374e-06</v>
+        <v>4.5636514780346e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.829861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>382453.8477579684</v>
+        <v>432830.1406596518</v>
       </c>
     </row>
   </sheetData>
@@ -6523,28 +6523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.2872134839396</v>
+        <v>280.7572049241788</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.981030913584</v>
+        <v>384.1443939109743</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.8200342791392</v>
+        <v>347.4821921061532</v>
       </c>
       <c r="AD2" t="n">
-        <v>246287.2134839396</v>
+        <v>280757.2049241788</v>
       </c>
       <c r="AE2" t="n">
-        <v>336981.0309135841</v>
+        <v>384144.3939109743</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.725521517707077e-06</v>
+        <v>5.463744992134783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.12109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>304820.0342791392</v>
+        <v>347482.1921061532</v>
       </c>
     </row>
     <row r="3">
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.2524595735466</v>
+        <v>282.7224510137859</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.6699673139215</v>
+        <v>386.8333303113133</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.2523423633754</v>
+        <v>349.9145001903897</v>
       </c>
       <c r="AD3" t="n">
-        <v>248252.4595735467</v>
+        <v>282722.4510137859</v>
       </c>
       <c r="AE3" t="n">
-        <v>339669.9673139215</v>
+        <v>386833.3303113133</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725979723316745e-06</v>
+        <v>5.464663538764823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.118923611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>307252.3423633754</v>
+        <v>349914.5001903897</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.3668009403062</v>
+        <v>648.252311406196</v>
       </c>
       <c r="AB2" t="n">
-        <v>806.397658074725</v>
+        <v>886.9674113395301</v>
       </c>
       <c r="AC2" t="n">
-        <v>729.4361973742938</v>
+        <v>802.3164864678652</v>
       </c>
       <c r="AD2" t="n">
-        <v>589366.8009403063</v>
+        <v>648252.311406196</v>
       </c>
       <c r="AE2" t="n">
-        <v>806397.658074725</v>
+        <v>886967.4113395301</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.831045832036549e-06</v>
+        <v>3.242918227876031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.79470486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>729436.1973742938</v>
+        <v>802316.4864678652</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.5279304706345</v>
+        <v>406.5138483376377</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.1854874890117</v>
+        <v>556.2101814208185</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.4983111392035</v>
+        <v>503.1262623519073</v>
       </c>
       <c r="AD3" t="n">
-        <v>357527.9304706345</v>
+        <v>406513.8483376377</v>
       </c>
       <c r="AE3" t="n">
-        <v>489185.4874890117</v>
+        <v>556210.1814208184</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.456387789021206e-06</v>
+        <v>4.350445300918041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.791232638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>442498.3111392035</v>
+        <v>503126.2623519073</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.2608640269394</v>
+        <v>340.4326196581786</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.1984048529705</v>
+        <v>465.7949290435247</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.8587676178969</v>
+        <v>421.3401147628988</v>
       </c>
       <c r="AD4" t="n">
-        <v>301260.8640269394</v>
+        <v>340432.6196581786</v>
       </c>
       <c r="AE4" t="n">
-        <v>412198.4048529705</v>
+        <v>465794.9290435247</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692433479977222e-06</v>
+        <v>4.768499759424668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>372858.7676178969</v>
+        <v>421340.1147628988</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>284.438603139336</v>
+        <v>333.3391801517674</v>
       </c>
       <c r="AB5" t="n">
-        <v>389.1814453607792</v>
+        <v>456.0893721703882</v>
       </c>
       <c r="AC5" t="n">
-        <v>352.0385144351347</v>
+        <v>412.5608426158998</v>
       </c>
       <c r="AD5" t="n">
-        <v>284438.603139336</v>
+        <v>333339.1801517674</v>
       </c>
       <c r="AE5" t="n">
-        <v>389181.4453607792</v>
+        <v>456089.3721703882</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.721292354503885e-06</v>
+        <v>4.819610970624888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.936197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>352038.5144351348</v>
+        <v>412560.8426158999</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.8952533691862</v>
+        <v>776.8252543713942</v>
       </c>
       <c r="AB2" t="n">
-        <v>967.2052716773012</v>
+        <v>1062.886584142431</v>
       </c>
       <c r="AC2" t="n">
-        <v>874.8965580295435</v>
+        <v>961.446180322567</v>
       </c>
       <c r="AD2" t="n">
-        <v>706895.2533691862</v>
+        <v>776825.2543713942</v>
       </c>
       <c r="AE2" t="n">
-        <v>967205.2716773011</v>
+        <v>1062886.584142431</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.656970523700872e-06</v>
+        <v>2.889611907986547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.76909722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>874896.5580295435</v>
+        <v>961446.180322567</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.6161270805435</v>
+        <v>452.6249833643972</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.5595884104004</v>
+        <v>619.301470644136</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.6788136568698</v>
+        <v>560.1962074809319</v>
       </c>
       <c r="AD3" t="n">
-        <v>412616.1270805435</v>
+        <v>452624.9833643972</v>
       </c>
       <c r="AE3" t="n">
-        <v>564559.5884104003</v>
+        <v>619301.470644136</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.31453255805645e-06</v>
+        <v>4.036342678109018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.142795138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>510678.8136568698</v>
+        <v>560196.2074809319</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.8666198333527</v>
+        <v>379.7901352626346</v>
       </c>
       <c r="AB4" t="n">
-        <v>465.0205031130479</v>
+        <v>519.6456182245859</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.6395989563131</v>
+        <v>470.0513697484364</v>
       </c>
       <c r="AD4" t="n">
-        <v>339866.6198333527</v>
+        <v>379790.1352626347</v>
       </c>
       <c r="AE4" t="n">
-        <v>465020.5031130479</v>
+        <v>519645.6182245858</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.562288360146829e-06</v>
+        <v>4.468407163115127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.257378472222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>420639.5989563131</v>
+        <v>470051.3697484364</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.1917308515663</v>
+        <v>339.2004976268688</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.3673255587119</v>
+        <v>464.1090853228989</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.2978825580375</v>
+        <v>419.8151656008731</v>
       </c>
       <c r="AD5" t="n">
-        <v>299191.7308515663</v>
+        <v>339200.4976268688</v>
       </c>
       <c r="AE5" t="n">
-        <v>409367.3255587118</v>
+        <v>464109.0853228989</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.675782163229554e-06</v>
+        <v>4.666330445502813e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.907986111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>370297.8825580375</v>
+        <v>419815.1656008731</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>297.092901919802</v>
+        <v>337.1016686951045</v>
       </c>
       <c r="AB6" t="n">
-        <v>406.4956152204743</v>
+        <v>461.2373749846616</v>
       </c>
       <c r="AC6" t="n">
-        <v>367.7002442240107</v>
+        <v>417.2175272668463</v>
       </c>
       <c r="AD6" t="n">
-        <v>297092.901919802</v>
+        <v>337101.6686951045</v>
       </c>
       <c r="AE6" t="n">
-        <v>406495.6152204744</v>
+        <v>461237.3749846616</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.686995038963672e-06</v>
+        <v>4.685884721683727e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.875434027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>367700.2442240107</v>
+        <v>417217.5272668463</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024.475513424755</v>
+        <v>1096.837580200252</v>
       </c>
       <c r="AB2" t="n">
-        <v>1401.732594137582</v>
+        <v>1500.741566288895</v>
       </c>
       <c r="AC2" t="n">
-        <v>1267.953202697142</v>
+        <v>1357.512897506299</v>
       </c>
       <c r="AD2" t="n">
-        <v>1024475.513424755</v>
+        <v>1096837.580200252</v>
       </c>
       <c r="AE2" t="n">
-        <v>1401732.594137582</v>
+        <v>1500741.566288895</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.34703085312558e-06</v>
+        <v>2.289863173986458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.16276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1267953.202697142</v>
+        <v>1357512.897506299</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>509.3447618599966</v>
+        <v>571.1986320939496</v>
       </c>
       <c r="AB3" t="n">
-        <v>696.9079738818386</v>
+        <v>781.5391679360988</v>
       </c>
       <c r="AC3" t="n">
-        <v>630.3960549710398</v>
+        <v>706.9501666453881</v>
       </c>
       <c r="AD3" t="n">
-        <v>509344.7618599966</v>
+        <v>571198.6320939496</v>
       </c>
       <c r="AE3" t="n">
-        <v>696907.9738818386</v>
+        <v>781539.1679360988</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.061532232076841e-06</v>
+        <v>3.504468163639583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.906684027777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>630396.0549710398</v>
+        <v>706950.1666453881</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.9968522394573</v>
+        <v>466.5986380041326</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.8170016030074</v>
+        <v>638.420841396356</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.6253439061827</v>
+        <v>577.4908523227655</v>
       </c>
       <c r="AD4" t="n">
-        <v>414996.8522394573</v>
+        <v>466598.6380041325</v>
       </c>
       <c r="AE4" t="n">
-        <v>567817.0016030074</v>
+        <v>638420.841396356</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.33210539652427e-06</v>
+        <v>3.964424610590682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.756510416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>513625.3439061827</v>
+        <v>577490.8523227655</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.9924325480104</v>
+        <v>414.2568824973873</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.3447014769584</v>
+        <v>566.8045423567462</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.638119441284</v>
+        <v>512.709512349389</v>
       </c>
       <c r="AD5" t="n">
-        <v>372992.4325480104</v>
+        <v>414256.8824973872</v>
       </c>
       <c r="AE5" t="n">
-        <v>510344.7014769585</v>
+        <v>566804.5423567462</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.479297197983671e-06</v>
+        <v>4.214640917732077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.237847222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>461638.119441284</v>
+        <v>512709.512349389</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.3254099826155</v>
+        <v>387.841854892719</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.1752635681166</v>
+        <v>530.6623362392673</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.2567822732136</v>
+        <v>480.0166676578576</v>
       </c>
       <c r="AD6" t="n">
-        <v>336325.4099826155</v>
+        <v>387841.854892719</v>
       </c>
       <c r="AE6" t="n">
-        <v>460175.2635681166</v>
+        <v>530662.3362392674</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.569927444022931e-06</v>
+        <v>4.368706329354307e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.947048611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>416256.7822732136</v>
+        <v>480016.6676578576</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>321.868560823167</v>
+        <v>363.2182621185643</v>
       </c>
       <c r="AB7" t="n">
-        <v>440.3947647569873</v>
+        <v>496.9712502894242</v>
       </c>
       <c r="AC7" t="n">
-        <v>398.364106506514</v>
+        <v>449.5410116653313</v>
       </c>
       <c r="AD7" t="n">
-        <v>321868.560823167</v>
+        <v>363218.2621185643</v>
       </c>
       <c r="AE7" t="n">
-        <v>440394.7647569873</v>
+        <v>496971.2502894242</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.610960452613915e-06</v>
+        <v>4.438459724439761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.823350694444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>398364.106506514</v>
+        <v>449541.0116653313</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>321.5624988984411</v>
+        <v>362.9122001938385</v>
       </c>
       <c r="AB8" t="n">
-        <v>439.9759973290782</v>
+        <v>496.552482861515</v>
       </c>
       <c r="AC8" t="n">
-        <v>397.9853056541808</v>
+        <v>449.1622108129981</v>
       </c>
       <c r="AD8" t="n">
-        <v>321562.4988984411</v>
+        <v>362912.2001938385</v>
       </c>
       <c r="AE8" t="n">
-        <v>439975.9973290781</v>
+        <v>496552.482861515</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.617454208560653e-06</v>
+        <v>4.449498679166587e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.803819444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>397985.3056541808</v>
+        <v>449162.2108129981</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.4365249944253</v>
+        <v>542.0000623067775</v>
       </c>
       <c r="AB2" t="n">
-        <v>662.8274253285082</v>
+        <v>741.5883966033042</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.5681061392888</v>
+        <v>670.8122408573357</v>
       </c>
       <c r="AD2" t="n">
-        <v>484436.5249944252</v>
+        <v>542000.0623067776</v>
       </c>
       <c r="AE2" t="n">
-        <v>662827.4253285081</v>
+        <v>741588.3966033042</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.030297424379092e-06</v>
+        <v>3.661106705621199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.88324652777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>599568.1061392889</v>
+        <v>670812.2408573357</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.2201408112935</v>
+        <v>350.5674749098889</v>
       </c>
       <c r="AB3" t="n">
-        <v>427.1933708384924</v>
+        <v>479.6618851171723</v>
       </c>
       <c r="AC3" t="n">
-        <v>386.4226350953276</v>
+        <v>433.8836280112725</v>
       </c>
       <c r="AD3" t="n">
-        <v>312220.1408112935</v>
+        <v>350567.4749098889</v>
       </c>
       <c r="AE3" t="n">
-        <v>427193.3708384924</v>
+        <v>479661.8851171723</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.618382170540951e-06</v>
+        <v>4.721562667291528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>386422.6350953276</v>
+        <v>433883.6280112725</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.4171438876411</v>
+        <v>320.7644779862364</v>
       </c>
       <c r="AB4" t="n">
-        <v>386.415595632122</v>
+        <v>438.8841099108018</v>
       </c>
       <c r="AC4" t="n">
-        <v>349.5366335226862</v>
+        <v>396.9976264386312</v>
       </c>
       <c r="AD4" t="n">
-        <v>282417.1438876411</v>
+        <v>320764.4779862365</v>
       </c>
       <c r="AE4" t="n">
-        <v>386415.595632122</v>
+        <v>438884.1099108019</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757563584668939e-06</v>
+        <v>4.972539692846124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.012152777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>349536.6335226862</v>
+        <v>396997.6264386312</v>
       </c>
     </row>
     <row r="5">
@@ -9513,28 +9513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.6973953193786</v>
+        <v>322.0447294179739</v>
       </c>
       <c r="AB5" t="n">
-        <v>388.1672921217323</v>
+        <v>440.6358064004121</v>
       </c>
       <c r="AC5" t="n">
-        <v>351.1211505578495</v>
+        <v>398.5821434737945</v>
       </c>
       <c r="AD5" t="n">
-        <v>283697.3953193786</v>
+        <v>322044.729417974</v>
       </c>
       <c r="AE5" t="n">
-        <v>388167.2921217323</v>
+        <v>440635.8064004121</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.757359954216667e-06</v>
+        <v>4.972172498953579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.014322916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>351121.1505578495</v>
+        <v>398582.1434737945</v>
       </c>
     </row>
   </sheetData>
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.710554562422</v>
+        <v>397.9691570598033</v>
       </c>
       <c r="AB2" t="n">
-        <v>481.2258971268834</v>
+        <v>544.5189578493112</v>
       </c>
       <c r="AC2" t="n">
-        <v>435.2983729098814</v>
+        <v>492.5508327493293</v>
       </c>
       <c r="AD2" t="n">
-        <v>351710.554562422</v>
+        <v>397969.1570598033</v>
       </c>
       <c r="AE2" t="n">
-        <v>481225.8971268833</v>
+        <v>544518.9578493112</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.386510706958646e-06</v>
+        <v>4.452466148368458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.644097222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>435298.3729098814</v>
+        <v>492550.8327493293</v>
       </c>
     </row>
     <row r="3">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.1184307866452</v>
+        <v>300.0400614385296</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.0102449682063</v>
+        <v>410.5280488934991</v>
       </c>
       <c r="AC3" t="n">
-        <v>325.651372465992</v>
+        <v>371.3478280868381</v>
       </c>
       <c r="AD3" t="n">
-        <v>263118.4307866452</v>
+        <v>300040.0614385296</v>
       </c>
       <c r="AE3" t="n">
-        <v>360010.2449682063</v>
+        <v>410528.0488934991</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793666275530962e-06</v>
+        <v>5.212088295003713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.237847222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>325651.3724659921</v>
+        <v>371347.8280868381</v>
       </c>
     </row>
     <row r="4">
@@ -10022,28 +10022,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.7833836738241</v>
+        <v>301.7050143257085</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.2883069609817</v>
+        <v>412.8061108862747</v>
       </c>
       <c r="AC4" t="n">
-        <v>327.7120194194572</v>
+        <v>373.4084750403033</v>
       </c>
       <c r="AD4" t="n">
-        <v>264783.3836738241</v>
+        <v>301705.0143257085</v>
       </c>
       <c r="AE4" t="n">
-        <v>362288.3069609817</v>
+        <v>412806.1108862747</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.793029929239887e-06</v>
+        <v>5.21090107622804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.240017361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>327712.0194194572</v>
+        <v>373408.4750403033</v>
       </c>
     </row>
   </sheetData>
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.1478088712582</v>
+        <v>311.89658124915</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.5234178271888</v>
+        <v>426.7506623711274</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.6383758451001</v>
+        <v>386.0221781027427</v>
       </c>
       <c r="AD2" t="n">
-        <v>267147.8088712582</v>
+        <v>311896.58124915</v>
       </c>
       <c r="AE2" t="n">
-        <v>365523.4178271889</v>
+        <v>426750.6623711274</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.684867741178448e-06</v>
+        <v>5.163100230868347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>330638.3758451001</v>
+        <v>386022.1781027426</v>
       </c>
     </row>
     <row r="3">
@@ -17758,28 +17758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.4900074070159</v>
+        <v>287.4426388475615</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.0997230902018</v>
+        <v>393.2916995454752</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.2593284655701</v>
+        <v>355.7564917292214</v>
       </c>
       <c r="AD3" t="n">
-        <v>251490.0074070159</v>
+        <v>287442.6388475614</v>
       </c>
       <c r="AE3" t="n">
-        <v>344099.7230902018</v>
+        <v>393291.6995454752</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793372734477953e-06</v>
+        <v>5.371759356739906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.524305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>311259.3284655701</v>
+        <v>355756.4917292214</v>
       </c>
     </row>
   </sheetData>
@@ -18055,28 +18055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.865059537214</v>
+        <v>282.8753932877301</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.5622006751281</v>
+        <v>387.0425926778606</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.1092467862455</v>
+        <v>350.1037908503753</v>
       </c>
       <c r="AD2" t="n">
-        <v>240865.059537214</v>
+        <v>282875.3932877301</v>
       </c>
       <c r="AE2" t="n">
-        <v>329562.2006751281</v>
+        <v>387042.5926778606</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.618972368550899e-06</v>
+        <v>5.401890630040858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>298109.2467862456</v>
+        <v>350103.7908503753</v>
       </c>
     </row>
   </sheetData>
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.1798460238514</v>
+        <v>712.5559504989552</v>
       </c>
       <c r="AB2" t="n">
-        <v>893.7094815908913</v>
+        <v>974.9504872225833</v>
       </c>
       <c r="AC2" t="n">
-        <v>808.4151029969913</v>
+        <v>881.9025810736623</v>
       </c>
       <c r="AD2" t="n">
-        <v>653179.8460238514</v>
+        <v>712555.9504989552</v>
       </c>
       <c r="AE2" t="n">
-        <v>893709.4815908913</v>
+        <v>974950.4872225833</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738407955098307e-06</v>
+        <v>3.05431420078059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.29383680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>808415.1029969914</v>
+        <v>881902.5810736623</v>
       </c>
     </row>
     <row r="3">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>380.0010071287787</v>
+        <v>429.4667961251441</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.9341424148544</v>
+        <v>587.6154171962745</v>
       </c>
       <c r="AC3" t="n">
-        <v>470.3123575949318</v>
+        <v>531.5342265024791</v>
       </c>
       <c r="AD3" t="n">
-        <v>380001.0071287787</v>
+        <v>429466.7961251441</v>
       </c>
       <c r="AE3" t="n">
-        <v>519934.1424148543</v>
+        <v>587615.4171962745</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.383922266867944e-06</v>
+        <v>4.188457382456042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>470312.3575949318</v>
+        <v>531534.2265024791</v>
       </c>
     </row>
     <row r="4">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.2357566914926</v>
+        <v>360.7914092262216</v>
       </c>
       <c r="AB4" t="n">
-        <v>439.5289342266825</v>
+        <v>493.6507230969274</v>
       </c>
       <c r="AC4" t="n">
-        <v>397.5809096268207</v>
+        <v>446.5373909276972</v>
       </c>
       <c r="AD4" t="n">
-        <v>321235.7566914926</v>
+        <v>360791.4092262216</v>
       </c>
       <c r="AE4" t="n">
-        <v>439528.9342266825</v>
+        <v>493650.7230969274</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.62341743181436e-06</v>
+        <v>4.609240939715341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.146701388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>397580.9096268207</v>
+        <v>446537.3909276972</v>
       </c>
     </row>
     <row r="5">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.6572021511873</v>
+        <v>330.2981060319368</v>
       </c>
       <c r="AB5" t="n">
-        <v>397.6900068740202</v>
+        <v>451.9284403969145</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.7350307793932</v>
+        <v>408.7970243309819</v>
       </c>
       <c r="AD5" t="n">
-        <v>290657.2021511873</v>
+        <v>330298.1060319368</v>
       </c>
       <c r="AE5" t="n">
-        <v>397690.0068740202</v>
+        <v>451928.4403969145</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.706334754546631e-06</v>
+        <v>4.75492340485199e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.897135416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>359735.0307793932</v>
+        <v>408797.0243309819</v>
       </c>
     </row>
     <row r="6">
@@ -18776,28 +18776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>292.4199356331819</v>
+        <v>332.0608395139314</v>
       </c>
       <c r="AB6" t="n">
-        <v>400.101856590398</v>
+        <v>454.3402901132923</v>
       </c>
       <c r="AC6" t="n">
-        <v>361.9166969438923</v>
+        <v>410.978690495481</v>
       </c>
       <c r="AD6" t="n">
-        <v>292419.9356331819</v>
+        <v>332060.8395139314</v>
       </c>
       <c r="AE6" t="n">
-        <v>400101.856590398</v>
+        <v>454340.2901132923</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.703872838788547e-06</v>
+        <v>4.750597915982136e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.903645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>361916.6969438923</v>
+        <v>410978.690495481</v>
       </c>
     </row>
   </sheetData>
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>930.7309513158568</v>
+        <v>1002.451047376745</v>
       </c>
       <c r="AB2" t="n">
-        <v>1273.467148541991</v>
+        <v>1371.597748039828</v>
       </c>
       <c r="AC2" t="n">
-        <v>1151.929231207511</v>
+        <v>1240.694384016436</v>
       </c>
       <c r="AD2" t="n">
-        <v>930730.9513158568</v>
+        <v>1002451.047376745</v>
       </c>
       <c r="AE2" t="n">
-        <v>1273467.148541991</v>
+        <v>1371597.748039828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420676258846571e-06</v>
+        <v>2.42919807906209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.49435763888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1151929.231207511</v>
+        <v>1240694.384016436</v>
       </c>
     </row>
     <row r="3">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>483.9939629559721</v>
+        <v>535.2834968180499</v>
       </c>
       <c r="AB3" t="n">
-        <v>662.2218924230373</v>
+        <v>732.3984953876703</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.0203644444454</v>
+        <v>662.4994109156147</v>
       </c>
       <c r="AD3" t="n">
-        <v>483993.9629559721</v>
+        <v>535283.4968180499</v>
       </c>
       <c r="AE3" t="n">
-        <v>662221.8924230373</v>
+        <v>732398.4953876704</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.121951895268731e-06</v>
+        <v>3.62830126550714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.704861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>599020.3644444454</v>
+        <v>662499.4109156147</v>
       </c>
     </row>
     <row r="4">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.130041767925</v>
+        <v>447.3342347754311</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.0025991709227</v>
+        <v>612.0624350133581</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.2746318114749</v>
+        <v>553.6480552507053</v>
       </c>
       <c r="AD4" t="n">
-        <v>396130.041767925</v>
+        <v>447334.2347754311</v>
       </c>
       <c r="AE4" t="n">
-        <v>542002.5991709228</v>
+        <v>612062.4350133581</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386045277699431e-06</v>
+        <v>4.079871518264457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.630642361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>490274.6318114749</v>
+        <v>553648.0552507053</v>
       </c>
     </row>
     <row r="5">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.3354085227076</v>
+        <v>399.2817842663492</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.2903145832755</v>
+        <v>546.3149523023326</v>
       </c>
       <c r="AC5" t="n">
-        <v>443.4976950862253</v>
+        <v>494.1754200124485</v>
       </c>
       <c r="AD5" t="n">
-        <v>358335.4085227076</v>
+        <v>399281.7842663492</v>
       </c>
       <c r="AE5" t="n">
-        <v>490290.3145832755</v>
+        <v>546314.9523023326</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.525636138481163e-06</v>
+        <v>4.3185563338613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.153211805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>443497.6950862253</v>
+        <v>494175.4200124484</v>
       </c>
     </row>
     <row r="6">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.5753837864596</v>
+        <v>360.6070108761219</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.2571387675335</v>
+        <v>493.3984211392399</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.525931137808</v>
+        <v>446.3091683147434</v>
       </c>
       <c r="AD6" t="n">
-        <v>319575.3837864596</v>
+        <v>360607.0108761219</v>
       </c>
       <c r="AE6" t="n">
-        <v>437257.1387675335</v>
+        <v>493398.4211392399</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.61777939192716e-06</v>
+        <v>4.476111028589059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.866753472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>395525.931137808</v>
+        <v>446309.1683147434</v>
       </c>
     </row>
     <row r="7">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>316.5640695565747</v>
+        <v>357.595696646237</v>
       </c>
       <c r="AB7" t="n">
-        <v>433.1369257883972</v>
+        <v>489.2782081601036</v>
       </c>
       <c r="AC7" t="n">
-        <v>391.7989455026452</v>
+        <v>442.5821826795807</v>
       </c>
       <c r="AD7" t="n">
-        <v>316564.0695565747</v>
+        <v>357595.696646237</v>
       </c>
       <c r="AE7" t="n">
-        <v>433136.9257883972</v>
+        <v>489278.2081601036</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.629261712902408e-06</v>
+        <v>4.495744517839377e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.83203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>391798.9455026452</v>
+        <v>442582.1826795808</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.4813748183529</v>
+        <v>295.1711066606434</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.1926439522073</v>
+        <v>403.8661301632704</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.9616267049576</v>
+        <v>365.3217135301608</v>
       </c>
       <c r="AD2" t="n">
-        <v>254481.3748183529</v>
+        <v>295171.1066606434</v>
       </c>
       <c r="AE2" t="n">
-        <v>348192.6439522073</v>
+        <v>403866.1301632705</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.375899416836504e-06</v>
+        <v>5.092646766889314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>314961.6267049576</v>
+        <v>365321.7135301608</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.7178897846248</v>
+        <v>446.5238583140011</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.911651112055</v>
+        <v>610.9536421875433</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.7151707252429</v>
+        <v>552.6450840559858</v>
       </c>
       <c r="AD2" t="n">
-        <v>399717.8897846248</v>
+        <v>446523.8583140011</v>
       </c>
       <c r="AE2" t="n">
-        <v>546911.6511120549</v>
+        <v>610953.6421875433</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259650418758497e-06</v>
+        <v>4.163253449482094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03689236111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>494715.1707252429</v>
+        <v>552645.0840559858</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.0976319458503</v>
+        <v>308.5253565001473</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.9277400117417</v>
+        <v>422.1380039416027</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.5269171053731</v>
+        <v>381.849745319825</v>
       </c>
       <c r="AD3" t="n">
-        <v>271097.6319458503</v>
+        <v>308525.3565001473</v>
       </c>
       <c r="AE3" t="n">
-        <v>370927.7400117417</v>
+        <v>422138.0039416027</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774684749438941e-06</v>
+        <v>5.112169457023269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.174913194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>335526.9171053731</v>
+        <v>381849.745319825</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.1362431044432</v>
+        <v>307.5639676587402</v>
       </c>
       <c r="AB4" t="n">
-        <v>369.6123253854461</v>
+        <v>420.8225893153071</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.3370438048152</v>
+        <v>380.659872019267</v>
       </c>
       <c r="AD4" t="n">
-        <v>270136.2431044432</v>
+        <v>307563.9676587402</v>
       </c>
       <c r="AE4" t="n">
-        <v>369612.3253854461</v>
+        <v>420822.5893153071</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.786494586972807e-06</v>
+        <v>5.133928285929957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.140190972222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>334337.0438048152</v>
+        <v>380659.872019267</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.9176582502141</v>
+        <v>599.0296514950362</v>
       </c>
       <c r="AB2" t="n">
-        <v>740.1074036208172</v>
+        <v>819.6187964985864</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.4725917665106</v>
+        <v>741.3955289029662</v>
       </c>
       <c r="AD2" t="n">
-        <v>540917.6582502141</v>
+        <v>599029.6514950362</v>
       </c>
       <c r="AE2" t="n">
-        <v>740107.4036208172</v>
+        <v>819618.7964985864</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.925914594593196e-06</v>
+        <v>3.440505873305098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.33897569444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>669472.5917665106</v>
+        <v>741395.5289029663</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.7679652833376</v>
+        <v>383.2514456332778</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.0442990209538</v>
+        <v>524.3815357759362</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.3291939916044</v>
+        <v>474.3352979755879</v>
       </c>
       <c r="AD3" t="n">
-        <v>334767.9652833376</v>
+        <v>383251.4456332778</v>
       </c>
       <c r="AE3" t="n">
-        <v>458044.2990209538</v>
+        <v>524381.5357759362</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.53679377451876e-06</v>
+        <v>4.531796947329929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.608940972222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>414329.1939916044</v>
+        <v>474335.2979755879</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>280.2399228865092</v>
+        <v>328.6380623818779</v>
       </c>
       <c r="AB4" t="n">
-        <v>383.436625806162</v>
+        <v>449.6570954389467</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.8419723959053</v>
+        <v>406.74245334795</v>
       </c>
       <c r="AD4" t="n">
-        <v>280239.9228865092</v>
+        <v>328638.0623818779</v>
       </c>
       <c r="AE4" t="n">
-        <v>383436.625806162</v>
+        <v>449657.0954389467</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.737334411249389e-06</v>
+        <v>4.890048159738344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.977430555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>346841.9723959053</v>
+        <v>406742.45334795</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.4001417943032</v>
+        <v>328.7982812896718</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.6558443841649</v>
+        <v>449.8763140169497</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.040269060499</v>
+        <v>406.9407500125436</v>
       </c>
       <c r="AD5" t="n">
-        <v>280400.1417943032</v>
+        <v>328798.2812896718</v>
       </c>
       <c r="AE5" t="n">
-        <v>383655.844384165</v>
+        <v>449876.3140169497</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.741359311133597e-06</v>
+        <v>4.897238349651207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.964409722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>347040.269060499</v>
+        <v>406940.7500125436</v>
       </c>
     </row>
   </sheetData>
